--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48077.32</v>
+        <v>374495.98</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48077.32</v>
+        <v>93623.99000000001</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48077.32</v>
+        <v>49022.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10289.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>303392.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11791.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374495.98</v>
+        <v>49022.46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47722.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93623.99000000001</v>
+        <v>303392.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>302776.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49022.46</v>
+        <v>10289.26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10170.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10289.26</v>
+        <v>11791.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10709.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303392.97</v>
+        <v>93623.99000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>92844.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11791.29</v>
+        <v>374495.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>371379.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,101 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371437.65</v>
+        <v>47722.91</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46505.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74287.53</v>
+        <v>57.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47722.91</v>
+        <v>10170.34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9739.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.76</v>
+        <v>302776.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>303296.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10170.34</v>
+        <v>10709.79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8935.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302776.85</v>
+        <v>74287.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73704.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10709.79</v>
+        <v>371437.65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>368523.49</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -480,9 +480,7 @@
       <c r="B4" t="n">
         <v>10170.34</v>
       </c>
-      <c r="C4" t="n">
-        <v>9739.07</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -493,9 +491,7 @@
       <c r="B5" t="n">
         <v>302776.85</v>
       </c>
-      <c r="C5" t="n">
-        <v>303296.57</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -506,9 +502,7 @@
       <c r="B6" t="n">
         <v>10709.79</v>
       </c>
-      <c r="C6" t="n">
-        <v>8935.73</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,7 +514,7 @@
         <v>74287.53</v>
       </c>
       <c r="C7" t="n">
-        <v>73704.7</v>
+        <v>23276.06</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +527,7 @@
         <v>371437.65</v>
       </c>
       <c r="C8" t="n">
-        <v>368523.49</v>
+        <v>46552.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47722.91</v>
+        <v>47742.43</v>
       </c>
       <c r="C2" t="n">
-        <v>46505.29</v>
+        <v>48507.85</v>
       </c>
       <c r="D2" t="n">
-        <v>46606.27</v>
+        <v>48106.21</v>
       </c>
       <c r="E2" t="n">
-        <v>48335.12</v>
+        <v>48281.14</v>
       </c>
       <c r="F2" t="n">
-        <v>48349.31</v>
+        <v>47596.18</v>
       </c>
       <c r="G2" t="n">
-        <v>48038.63</v>
-      </c>
-      <c r="H2" t="n">
-        <v>48836.07</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46241.87</v>
-      </c>
-      <c r="J2" t="n">
-        <v>49127.16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48917.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>48161.35</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47742.43</v>
+        <v>48811.32</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.76</v>
+        <v>47.65</v>
       </c>
       <c r="C3" t="n">
-        <v>46.83</v>
+        <v>54.18</v>
       </c>
       <c r="D3" t="n">
-        <v>45.81</v>
+        <v>51.62</v>
       </c>
       <c r="E3" t="n">
-        <v>48.73</v>
+        <v>52.18</v>
       </c>
       <c r="F3" t="n">
-        <v>51.22</v>
+        <v>46.81</v>
       </c>
       <c r="G3" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46.16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>49.23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>51.28</v>
-      </c>
-      <c r="M3" t="n">
-        <v>47.65</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="4">
@@ -588,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10170.34</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>9752.360000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9869.950000000001</v>
+      </c>
       <c r="D4" t="n">
-        <v>9895.34</v>
+        <v>9942.809999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>10154.86</v>
+        <v>10257.9</v>
       </c>
       <c r="F4" t="n">
-        <v>10244.86</v>
+        <v>9960.16</v>
       </c>
       <c r="G4" t="n">
-        <v>10188.67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9768.33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9912.889999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10301.15</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10192.81</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9761.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9752.360000000001</v>
+        <v>10343.17</v>
       </c>
     </row>
     <row r="5">
@@ -629,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>302776.85</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>303987.01</v>
+      </c>
+      <c r="C5" t="n">
+        <v>301176.8</v>
+      </c>
       <c r="D5" t="n">
-        <v>300849.78</v>
+        <v>298468.41</v>
       </c>
       <c r="E5" t="n">
-        <v>302374.9</v>
+        <v>303287.63</v>
       </c>
       <c r="F5" t="n">
-        <v>302066.1</v>
+        <v>300966.66</v>
       </c>
       <c r="G5" t="n">
-        <v>301848.53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>303114.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>302088.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>302947.39</v>
-      </c>
-      <c r="K5" t="n">
-        <v>303336.83</v>
-      </c>
-      <c r="L5" t="n">
-        <v>303201.93</v>
-      </c>
-      <c r="M5" t="n">
-        <v>303987.01</v>
+        <v>303335.53</v>
       </c>
     </row>
     <row r="6">
@@ -670,38 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10709.79</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>11681.16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8044.78</v>
+      </c>
       <c r="D6" t="n">
-        <v>9452.08</v>
+        <v>11751.48</v>
       </c>
       <c r="E6" t="n">
-        <v>9611.93</v>
+        <v>10813.2</v>
       </c>
       <c r="F6" t="n">
-        <v>10129.16</v>
+        <v>10804.28</v>
       </c>
       <c r="G6" t="n">
-        <v>10307.63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9893.889999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10278.93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10625.94</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10803.54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11687.16</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11681.16</v>
+        <v>10881.64</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74287.53</v>
+        <v>74642.12</v>
       </c>
       <c r="C7" t="n">
-        <v>23276.06</v>
+        <v>73530.71000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>73369.86</v>
+        <v>73664.11</v>
       </c>
       <c r="E7" t="n">
-        <v>74105.11</v>
+        <v>74538.41</v>
       </c>
       <c r="F7" t="n">
-        <v>74168.13</v>
+        <v>73874.82000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>74086.25999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>74332.52</v>
-      </c>
-      <c r="I7" t="n">
-        <v>73714.17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>74609.56</v>
-      </c>
-      <c r="K7" t="n">
-        <v>74659.96000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>74572.72</v>
-      </c>
-      <c r="M7" t="n">
-        <v>74642.12</v>
+        <v>74684.22</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371437.65</v>
+        <v>373210.61</v>
       </c>
       <c r="C8" t="n">
-        <v>46552.12</v>
+        <v>367653.56</v>
       </c>
       <c r="D8" t="n">
-        <v>366849.28</v>
+        <v>368320.53</v>
       </c>
       <c r="E8" t="n">
-        <v>370525.54</v>
+        <v>372692.05</v>
       </c>
       <c r="F8" t="n">
-        <v>370840.65</v>
+        <v>369374.09</v>
       </c>
       <c r="G8" t="n">
-        <v>370431.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>371662.62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>368570.86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>373047.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>373299.81</v>
-      </c>
-      <c r="L8" t="n">
-        <v>372863.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>373210.61</v>
+        <v>373421.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>47722.91</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46505.29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46606.27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48335.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48349.31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48038.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48836.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46241.87</v>
+      </c>
+      <c r="J2" t="n">
+        <v>49127.16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48917.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>48161.35</v>
+      </c>
+      <c r="M2" t="n">
         <v>47742.43</v>
-      </c>
-      <c r="C2" t="n">
-        <v>48507.85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48106.21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48281.14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47596.18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>48811.32</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>57.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="M3" t="n">
         <v>47.65</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54.18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.62</v>
-      </c>
-      <c r="E3" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46.81</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49.43</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10170.34</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>9895.34</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10154.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10244.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10188.67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9768.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9912.889999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10301.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10192.81</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9761.9</v>
+      </c>
+      <c r="M4" t="n">
         <v>9752.360000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9869.950000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9942.809999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10257.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9960.16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10343.17</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +629,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>302776.85</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>300849.78</v>
+      </c>
+      <c r="E5" t="n">
+        <v>302374.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>302066.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>301848.53</v>
+      </c>
+      <c r="H5" t="n">
+        <v>303114.02</v>
+      </c>
+      <c r="I5" t="n">
+        <v>302088.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302947.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>303336.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>303201.93</v>
+      </c>
+      <c r="M5" t="n">
         <v>303987.01</v>
-      </c>
-      <c r="C5" t="n">
-        <v>301176.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>298468.41</v>
-      </c>
-      <c r="E5" t="n">
-        <v>303287.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>300966.66</v>
-      </c>
-      <c r="G5" t="n">
-        <v>303335.53</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +670,38 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>10709.79</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>9452.08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9611.93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10129.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10307.63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9893.889999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10278.93</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10625.94</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10803.54</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11687.16</v>
+      </c>
+      <c r="M6" t="n">
         <v>11681.16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8044.78</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11751.48</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10813.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10804.28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10881.64</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +711,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>74287.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23276.06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73369.86</v>
+      </c>
+      <c r="E7" t="n">
+        <v>74105.11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>74168.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>74086.25999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>74332.52</v>
+      </c>
+      <c r="I7" t="n">
+        <v>73714.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>74609.56</v>
+      </c>
+      <c r="K7" t="n">
+        <v>74659.96000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>74572.72</v>
+      </c>
+      <c r="M7" t="n">
         <v>74642.12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>73530.71000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73664.11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>74538.41</v>
-      </c>
-      <c r="F7" t="n">
-        <v>73874.82000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>74684.22</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +754,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>371437.65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46552.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>366849.28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>370525.54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>370840.65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>370431.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>371662.62</v>
+      </c>
+      <c r="I8" t="n">
+        <v>368570.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>373047.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>373299.81</v>
+      </c>
+      <c r="L8" t="n">
+        <v>372863.62</v>
+      </c>
+      <c r="M8" t="n">
         <v>373210.61</v>
-      </c>
-      <c r="C8" t="n">
-        <v>367653.56</v>
-      </c>
-      <c r="D8" t="n">
-        <v>368320.53</v>
-      </c>
-      <c r="E8" t="n">
-        <v>372692.05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>369374.09</v>
-      </c>
-      <c r="G8" t="n">
-        <v>373421.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47722.91</v>
+        <v>47742.43</v>
       </c>
       <c r="C2" t="n">
-        <v>46505.29</v>
+        <v>48507.85</v>
       </c>
       <c r="D2" t="n">
-        <v>46606.27</v>
+        <v>48106.21</v>
       </c>
       <c r="E2" t="n">
-        <v>48335.12</v>
+        <v>48281.14</v>
       </c>
       <c r="F2" t="n">
-        <v>48349.31</v>
+        <v>47596.18</v>
       </c>
       <c r="G2" t="n">
-        <v>48038.63</v>
+        <v>48811.32</v>
       </c>
       <c r="H2" t="n">
-        <v>48836.07</v>
+        <v>48981.63</v>
       </c>
       <c r="I2" t="n">
-        <v>46241.87</v>
+        <v>47426.25</v>
       </c>
       <c r="J2" t="n">
-        <v>49127.16</v>
+        <v>47068.08</v>
       </c>
       <c r="K2" t="n">
-        <v>48917.4</v>
+        <v>48974.9</v>
       </c>
       <c r="L2" t="n">
-        <v>48161.35</v>
+        <v>48355.13</v>
       </c>
       <c r="M2" t="n">
-        <v>47742.43</v>
+        <v>47273.46</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46939.37</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46740.15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>48092.89</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>47210.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>48677.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>46573.76</v>
+      </c>
+      <c r="T2" t="n">
+        <v>47834.53</v>
+      </c>
+      <c r="U2" t="n">
+        <v>48551.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>46698.82</v>
+      </c>
+      <c r="W2" t="n">
+        <v>47108.48</v>
+      </c>
+      <c r="X2" t="n">
+        <v>48725.9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>46619.53</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>48954.6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>48487.11</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.76</v>
+        <v>47.65</v>
       </c>
       <c r="C3" t="n">
-        <v>46.83</v>
+        <v>54.18</v>
       </c>
       <c r="D3" t="n">
-        <v>45.81</v>
+        <v>51.62</v>
       </c>
       <c r="E3" t="n">
-        <v>48.73</v>
+        <v>52.18</v>
       </c>
       <c r="F3" t="n">
-        <v>51.22</v>
+        <v>46.81</v>
       </c>
       <c r="G3" t="n">
-        <v>47.84</v>
+        <v>49.43</v>
       </c>
       <c r="H3" t="n">
-        <v>50.31</v>
+        <v>48.43</v>
       </c>
       <c r="I3" t="n">
-        <v>48.85</v>
+        <v>50.38</v>
       </c>
       <c r="J3" t="n">
-        <v>46.16</v>
+        <v>51.9</v>
       </c>
       <c r="K3" t="n">
-        <v>49.23</v>
+        <v>55.37</v>
       </c>
       <c r="L3" t="n">
-        <v>51.28</v>
+        <v>51.53</v>
       </c>
       <c r="M3" t="n">
-        <v>47.65</v>
+        <v>54.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="P3" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="R3" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="T3" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="U3" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="W3" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="X3" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="4">
@@ -588,38 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10170.34</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>9752.360000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9869.950000000001</v>
+      </c>
       <c r="D4" t="n">
-        <v>9895.34</v>
+        <v>9942.809999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>10154.86</v>
+        <v>10257.9</v>
       </c>
       <c r="F4" t="n">
-        <v>10244.86</v>
+        <v>9960.16</v>
       </c>
       <c r="G4" t="n">
-        <v>10188.67</v>
+        <v>10343.17</v>
       </c>
       <c r="H4" t="n">
-        <v>9768.33</v>
+        <v>9739.26</v>
       </c>
       <c r="I4" t="n">
-        <v>9912.889999999999</v>
+        <v>9727.16</v>
       </c>
       <c r="J4" t="n">
-        <v>10301.15</v>
+        <v>9714.1</v>
       </c>
       <c r="K4" t="n">
-        <v>10192.81</v>
+        <v>10356.26</v>
       </c>
       <c r="L4" t="n">
-        <v>9761.9</v>
+        <v>10141.2</v>
       </c>
       <c r="M4" t="n">
-        <v>9752.360000000001</v>
+        <v>9782.219999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9802.23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9966.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10184.86</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9747.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10208.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10322.55</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9813.24</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10097.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9937.309999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9676.700000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9888.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10317.91</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9978.860000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10174.57</v>
       </c>
     </row>
     <row r="5">
@@ -629,38 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>302776.85</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>303987.01</v>
+      </c>
+      <c r="C5" t="n">
+        <v>301176.8</v>
+      </c>
       <c r="D5" t="n">
-        <v>300849.78</v>
+        <v>298468.41</v>
       </c>
       <c r="E5" t="n">
-        <v>302374.9</v>
+        <v>303287.63</v>
       </c>
       <c r="F5" t="n">
-        <v>302066.1</v>
+        <v>300966.66</v>
       </c>
       <c r="G5" t="n">
-        <v>301848.53</v>
+        <v>303335.53</v>
       </c>
       <c r="H5" t="n">
-        <v>303114.02</v>
+        <v>303329.15</v>
       </c>
       <c r="I5" t="n">
-        <v>302088.32</v>
+        <v>303891.71</v>
       </c>
       <c r="J5" t="n">
-        <v>302947.39</v>
+        <v>302992.26</v>
       </c>
       <c r="K5" t="n">
-        <v>303336.83</v>
+        <v>303181.46</v>
       </c>
       <c r="L5" t="n">
-        <v>303201.93</v>
+        <v>302824.49</v>
       </c>
       <c r="M5" t="n">
-        <v>303987.01</v>
+        <v>300732.64</v>
+      </c>
+      <c r="N5" t="n">
+        <v>302478.47</v>
+      </c>
+      <c r="O5" t="n">
+        <v>304089.75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>303221.04</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>302286.28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>301153.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>301032.09</v>
+      </c>
+      <c r="T5" t="n">
+        <v>301327.86</v>
+      </c>
+      <c r="U5" t="n">
+        <v>301234.84</v>
+      </c>
+      <c r="V5" t="n">
+        <v>301432.32</v>
+      </c>
+      <c r="W5" t="n">
+        <v>302104.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>303280.84</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>303300.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>301008.01</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>302274.4</v>
       </c>
     </row>
     <row r="6">
@@ -670,39 +912,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10709.79</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>11681.16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8044.78</v>
+      </c>
       <c r="D6" t="n">
-        <v>9452.08</v>
+        <v>11751.48</v>
       </c>
       <c r="E6" t="n">
-        <v>9611.93</v>
+        <v>10813.2</v>
       </c>
       <c r="F6" t="n">
-        <v>10129.16</v>
+        <v>10804.28</v>
       </c>
       <c r="G6" t="n">
-        <v>10307.63</v>
+        <v>10881.64</v>
       </c>
       <c r="H6" t="n">
-        <v>9893.889999999999</v>
+        <v>10504.18</v>
       </c>
       <c r="I6" t="n">
-        <v>10278.93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10625.94</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10803.54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11687.16</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11681.16</v>
-      </c>
+        <v>10841.05</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -711,40 +961,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74287.53</v>
+        <v>74642.12</v>
       </c>
       <c r="C7" t="n">
-        <v>23276.06</v>
+        <v>73530.71000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>73369.86</v>
+        <v>73664.11</v>
       </c>
       <c r="E7" t="n">
-        <v>74105.11</v>
+        <v>74538.41</v>
       </c>
       <c r="F7" t="n">
-        <v>74168.13</v>
+        <v>73874.82000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>74086.25999999999</v>
+        <v>74684.22</v>
       </c>
       <c r="H7" t="n">
-        <v>74332.52</v>
+        <v>74520.53</v>
       </c>
       <c r="I7" t="n">
-        <v>73714.17</v>
+        <v>74387.31</v>
       </c>
       <c r="J7" t="n">
-        <v>74609.56</v>
+        <v>89956.59</v>
       </c>
       <c r="K7" t="n">
-        <v>74659.96000000001</v>
+        <v>90642</v>
       </c>
       <c r="L7" t="n">
-        <v>74572.72</v>
+        <v>90343.09</v>
       </c>
       <c r="M7" t="n">
-        <v>74642.12</v>
+        <v>89460.61</v>
+      </c>
+      <c r="N7" t="n">
+        <v>89817.24000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>90211.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>90386.99000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>89824.03999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>90021.91</v>
+      </c>
+      <c r="S7" t="n">
+        <v>89494.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>89755.42</v>
+      </c>
+      <c r="U7" t="n">
+        <v>89983.48</v>
+      </c>
+      <c r="V7" t="n">
+        <v>89526.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>89732.24000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>90482.75999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>90069.28999999999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>89994.98</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>90243.64999999999</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +1046,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371437.65</v>
+        <v>373210.61</v>
       </c>
       <c r="C8" t="n">
-        <v>46552.12</v>
+        <v>367653.56</v>
       </c>
       <c r="D8" t="n">
-        <v>366849.28</v>
+        <v>368320.53</v>
       </c>
       <c r="E8" t="n">
-        <v>370525.54</v>
+        <v>372692.05</v>
       </c>
       <c r="F8" t="n">
-        <v>370840.65</v>
+        <v>369374.09</v>
       </c>
       <c r="G8" t="n">
-        <v>370431.3</v>
+        <v>373421.09</v>
       </c>
       <c r="H8" t="n">
-        <v>371662.62</v>
+        <v>372602.65</v>
       </c>
       <c r="I8" t="n">
-        <v>368570.86</v>
+        <v>371936.55</v>
       </c>
       <c r="J8" t="n">
-        <v>373047.8</v>
+        <v>359826.34</v>
       </c>
       <c r="K8" t="n">
-        <v>373299.81</v>
+        <v>362567.99</v>
       </c>
       <c r="L8" t="n">
-        <v>372863.62</v>
+        <v>361372.35</v>
       </c>
       <c r="M8" t="n">
-        <v>373210.61</v>
+        <v>357842.44</v>
+      </c>
+      <c r="N8" t="n">
+        <v>359268.96</v>
+      </c>
+      <c r="O8" t="n">
+        <v>360846</v>
+      </c>
+      <c r="P8" t="n">
+        <v>361547.95</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>359296.18</v>
+      </c>
+      <c r="R8" t="n">
+        <v>360087.64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>357978.11</v>
+      </c>
+      <c r="T8" t="n">
+        <v>359021.69</v>
+      </c>
+      <c r="U8" t="n">
+        <v>359933.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358107.78</v>
+      </c>
+      <c r="W8" t="n">
+        <v>358928.95</v>
+      </c>
+      <c r="X8" t="n">
+        <v>361931.05</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>360277.16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>359979.91</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>360974.58</v>
       </c>
     </row>
   </sheetData>
